--- a/biology/Médecine/Marcel_Janbon/Marcel_Janbon.xlsx
+++ b/biology/Médecine/Marcel_Janbon/Marcel_Janbon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Janbon, né le 24 novembre 1898 à Montpellier et mort le 24 mai 1996 dans la même ville, est un infectiologue, professeur de clinique médicale français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contemporain de l'apparition des sulfamides puis des antibiotiques, il a consacré de très nombreux travaux aux applications thérapeutiques de ceux-ci[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contemporain de l'apparition des sulfamides puis des antibiotiques, il a consacré de très nombreux travaux aux applications thérapeutiques de ceux-ci,.
 La découverte des antidiabétiques oraux remonte à la deuxième moitié du XIXe siècle. L'effet hypoglycémiant de certains sulfamides antibactériens est montré en 1942 par Marcel Janbon à Montpellier et prouvé expérimentalement par Auguste Loubatières.
 En 1942, à Montpellier, Janbon et son équipe découvrent les effets hypoglycémiants d'un sulfonamide.
 Marcel Janbon a fait partie de l'Académie nationale de médecine ; il était correspondant national pour la division de médecine de 1961 à 1996.
